--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF965D37-65AE-4255-8B71-0718E49D8CEA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E40779-87B1-4CD5-81C8-6963D269B711}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Props</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Computer</t>
   </si>
   <si>
-    <t>Doorpost</t>
-  </si>
-  <si>
     <t>Radiator</t>
   </si>
   <si>
@@ -92,6 +89,27 @@
   </si>
   <si>
     <t>Beamer</t>
+  </si>
+  <si>
+    <t>Joppe</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
+    <t>Doorpost(Deur)</t>
+  </si>
+  <si>
+    <t>Afmetingen</t>
+  </si>
+  <si>
+    <t>80x80</t>
+  </si>
+  <si>
+    <t>72 hoog; 160x160</t>
+  </si>
+  <si>
+    <t>Zitting: 30 hoog; Absoluut: 105 hoog; diepte: 60, 5 poten, zitting: 45x45; leuning naar leuning: 65</t>
   </si>
 </sst>
 </file>
@@ -467,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,14 +499,15 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -510,155 +529,195 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -667,9 +726,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -678,9 +739,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>

--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E40779-87B1-4CD5-81C8-6963D269B711}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -198,13 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -484,30 +490,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,7 +539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -560,12 +566,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="J4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -576,12 +582,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="6"/>
       <c r="J5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,9 +598,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -607,7 +613,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -620,7 +626,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -633,7 +639,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -646,7 +652,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -657,9 +663,9 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -670,9 +676,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,7 +691,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -698,7 +704,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -711,7 +717,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -724,7 +730,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -748,9 +754,9 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
@@ -759,7 +765,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
@@ -768,7 +774,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
@@ -777,7 +783,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
   </sheetData>

--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035E31C-9C45-4748-84F5-FFDC0399E6DB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +703,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">

--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035E31C-9C45-4748-84F5-FFDC0399E6DB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A3CB0-93D5-468D-BBD3-6E5CD87433BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Props</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
     <t>Radiator</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
   </si>
   <si>
     <t>Green_Screen</t>
-  </si>
-  <si>
-    <t>Window_Frame_002</t>
-  </si>
-  <si>
-    <t>Window_Frame_001</t>
   </si>
   <si>
     <t>Beamer</t>
@@ -492,29 +483,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="85.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -537,15 +528,15 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -553,15 +544,15 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -569,15 +560,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -585,15 +576,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -601,12 +592,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -614,12 +605,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -627,12 +618,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -640,25 +631,25 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -666,126 +657,87 @@
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035E31C-9C45-4748-84F5-FFDC0399E6DB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF38A92-0AA9-4061-B5B5-C689177D0A90}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Art/Assets.xlsx
+++ b/Art/Assets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A3CB0-93D5-468D-BBD3-6E5CD87433BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD1BDBB-0507-44DB-8214-A68245372413}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Props</t>
   </si>
@@ -31,27 +31,12 @@
     <t>Curtain</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
-    <t>Implemented</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -101,6 +86,9 @@
   </si>
   <si>
     <t>Zitting: 30 hoog; Absoluut: 105 hoog; diepte: 60, 5 poten, zitting: 45x45; leuning naar leuning: 65</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
   </si>
 </sst>
 </file>
@@ -157,7 +145,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -174,20 +164,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -195,14 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -483,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,244 +487,208 @@
     <col min="10" max="10" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
